--- a/data/output/FV2504_FV2410/UTILMD/55035.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55035.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16151" uniqueCount="1304">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16172" uniqueCount="1304">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -4248,6 +4248,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U864" totalsRowShown="0">
+  <autoFilter ref="A1:U864"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4537,7 +4567,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U864"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -42380,5 +42413,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55035.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55035.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19729" uniqueCount="2152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19521" uniqueCount="2152">
   <si>
     <t>#</t>
   </si>
@@ -11203,44 +11203,42 @@
       </c>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5" t="s">
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M84" s="5" t="s">
+      <c r="K84" s="2"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N84" s="5" t="s">
+      <c r="N84" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5" t="s">
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V84" s="5"/>
+      <c r="V84" s="2"/>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="5" t="s">
@@ -11411,44 +11409,42 @@
       <c r="V87" s="5"/>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M88" s="5" t="s">
+      <c r="K88" s="2"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5" t="s">
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V88" s="5"/>
+      <c r="V88" s="2"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="5" t="s">
@@ -13088,9 +13084,7 @@
         <v>904</v>
       </c>
       <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="5" t="s">
         <v>45</v>
       </c>
@@ -13144,9 +13138,7 @@
         <v>904</v>
       </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>45</v>
       </c>
@@ -13200,9 +13192,7 @@
         <v>904</v>
       </c>
       <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>45</v>
       </c>
@@ -13656,9 +13646,7 @@
         <v>904</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>47</v>
       </c>
@@ -13917,46 +13905,44 @@
       </c>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5" t="s">
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="K138" s="5" t="s">
+      <c r="K138" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="L138" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M138" s="5" t="s">
+      <c r="L138" s="4"/>
+      <c r="M138" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N138" s="5" t="s">
+      <c r="N138" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O138" s="5"/>
-      <c r="P138" s="5"/>
-      <c r="Q138" s="5"/>
-      <c r="R138" s="5"/>
-      <c r="S138" s="5"/>
-      <c r="T138" s="5"/>
-      <c r="U138" s="5" t="s">
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="V138" s="5" t="s">
+      <c r="V138" s="2" t="s">
         <v>1045</v>
       </c>
     </row>
@@ -14237,44 +14223,42 @@
       </c>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5" t="s">
+      <c r="C144" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M144" s="5" t="s">
+      <c r="K144" s="2"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N144" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-      <c r="U144" s="5" t="s">
+      <c r="N144" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V144" s="5"/>
+      <c r="V144" s="2"/>
     </row>
     <row r="145" spans="1:22">
       <c r="A145" s="5" t="s">
@@ -14472,9 +14456,7 @@
         <v>904</v>
       </c>
       <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>51</v>
       </c>
@@ -14902,9 +14884,7 @@
         <v>904</v>
       </c>
       <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>53</v>
       </c>
@@ -17554,9 +17534,7 @@
         <v>938</v>
       </c>
       <c r="K214" s="5"/>
-      <c r="L214" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L214" s="4"/>
       <c r="M214" s="5" t="s">
         <v>64</v>
       </c>
@@ -18013,44 +17991,42 @@
       <c r="V223" s="5"/>
     </row>
     <row r="224" spans="1:22">
-      <c r="A224" s="5" t="s">
+      <c r="A224" s="2" t="s">
         <v>1516</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C224" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D224" s="5"/>
-      <c r="E224" s="5"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="5"/>
-      <c r="H224" s="5"/>
-      <c r="I224" s="5"/>
-      <c r="J224" s="5" t="s">
+      <c r="C224" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K224" s="5"/>
-      <c r="L224" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M224" s="5" t="s">
+      <c r="K224" s="2"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N224" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O224" s="5"/>
-      <c r="P224" s="5"/>
-      <c r="Q224" s="5"/>
-      <c r="R224" s="5"/>
-      <c r="S224" s="5"/>
-      <c r="T224" s="5"/>
-      <c r="U224" s="5" t="s">
+      <c r="N224" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O224" s="2"/>
+      <c r="P224" s="2"/>
+      <c r="Q224" s="2"/>
+      <c r="R224" s="2"/>
+      <c r="S224" s="2"/>
+      <c r="T224" s="2"/>
+      <c r="U224" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V224" s="5"/>
+      <c r="V224" s="2"/>
     </row>
     <row r="225" spans="1:22">
       <c r="A225" s="5" t="s">
@@ -20161,44 +20137,42 @@
       <c r="V272" s="5"/>
     </row>
     <row r="273" spans="1:22">
-      <c r="A273" s="5" t="s">
+      <c r="A273" s="2" t="s">
         <v>1564</v>
       </c>
-      <c r="B273" s="5" t="s">
+      <c r="B273" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C273" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D273" s="5"/>
-      <c r="E273" s="5"/>
-      <c r="F273" s="5"/>
-      <c r="G273" s="5"/>
-      <c r="H273" s="5"/>
-      <c r="I273" s="5"/>
-      <c r="J273" s="5" t="s">
+      <c r="C273" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K273" s="5"/>
-      <c r="L273" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M273" s="5" t="s">
+      <c r="K273" s="2"/>
+      <c r="L273" s="4"/>
+      <c r="M273" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N273" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O273" s="5"/>
-      <c r="P273" s="5"/>
-      <c r="Q273" s="5"/>
-      <c r="R273" s="5"/>
-      <c r="S273" s="5"/>
-      <c r="T273" s="5"/>
-      <c r="U273" s="5" t="s">
+      <c r="N273" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O273" s="2"/>
+      <c r="P273" s="2"/>
+      <c r="Q273" s="2"/>
+      <c r="R273" s="2"/>
+      <c r="S273" s="2"/>
+      <c r="T273" s="2"/>
+      <c r="U273" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V273" s="5"/>
+      <c r="V273" s="2"/>
     </row>
     <row r="274" spans="1:22">
       <c r="A274" s="5" t="s">
@@ -20444,9 +20418,7 @@
         <v>904</v>
       </c>
       <c r="K278" s="5"/>
-      <c r="L278" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L278" s="4"/>
       <c r="M278" s="5" t="s">
         <v>74</v>
       </c>
@@ -20500,9 +20472,7 @@
         <v>904</v>
       </c>
       <c r="K279" s="5"/>
-      <c r="L279" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L279" s="4"/>
       <c r="M279" s="5" t="s">
         <v>74</v>
       </c>
@@ -20731,44 +20701,42 @@
       <c r="V284" s="5"/>
     </row>
     <row r="285" spans="1:22">
-      <c r="A285" s="5" t="s">
+      <c r="A285" s="2" t="s">
         <v>1576</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="B285" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C285" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D285" s="5"/>
-      <c r="E285" s="5"/>
-      <c r="F285" s="5"/>
-      <c r="G285" s="5"/>
-      <c r="H285" s="5"/>
-      <c r="I285" s="5"/>
-      <c r="J285" s="5" t="s">
+      <c r="C285" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+      <c r="H285" s="2"/>
+      <c r="I285" s="2"/>
+      <c r="J285" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K285" s="5"/>
-      <c r="L285" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M285" s="5" t="s">
+      <c r="K285" s="2"/>
+      <c r="L285" s="4"/>
+      <c r="M285" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N285" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O285" s="5"/>
-      <c r="P285" s="5"/>
-      <c r="Q285" s="5"/>
-      <c r="R285" s="5"/>
-      <c r="S285" s="5"/>
-      <c r="T285" s="5"/>
-      <c r="U285" s="5" t="s">
+      <c r="N285" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O285" s="2"/>
+      <c r="P285" s="2"/>
+      <c r="Q285" s="2"/>
+      <c r="R285" s="2"/>
+      <c r="S285" s="2"/>
+      <c r="T285" s="2"/>
+      <c r="U285" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V285" s="5"/>
+      <c r="V285" s="2"/>
     </row>
     <row r="286" spans="1:22">
       <c r="A286" s="5" t="s">
@@ -20906,9 +20874,7 @@
         <v>904</v>
       </c>
       <c r="K288" s="5"/>
-      <c r="L288" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L288" s="4"/>
       <c r="M288" s="5" t="s">
         <v>76</v>
       </c>
@@ -23434,9 +23400,7 @@
         <v>903</v>
       </c>
       <c r="K348" s="5"/>
-      <c r="L348" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L348" s="4"/>
       <c r="M348" s="5" t="s">
         <v>89</v>
       </c>
@@ -23488,9 +23452,7 @@
         <v>904</v>
       </c>
       <c r="K349" s="5"/>
-      <c r="L349" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L349" s="4"/>
       <c r="M349" s="5" t="s">
         <v>89</v>
       </c>
@@ -23548,9 +23510,7 @@
       <c r="K350" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="L350" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L350" s="4"/>
       <c r="M350" s="5" t="s">
         <v>89</v>
       </c>
@@ -23639,44 +23599,42 @@
       <c r="V351" s="5"/>
     </row>
     <row r="352" spans="1:22">
-      <c r="A352" s="5" t="s">
+      <c r="A352" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="B352" s="5" t="s">
+      <c r="B352" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C352" s="5" t="s">
+      <c r="C352" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D352" s="5"/>
-      <c r="E352" s="5"/>
-      <c r="F352" s="5"/>
-      <c r="G352" s="5"/>
-      <c r="H352" s="5"/>
-      <c r="I352" s="5"/>
-      <c r="J352" s="5" t="s">
+      <c r="D352" s="2"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
+      <c r="G352" s="2"/>
+      <c r="H352" s="2"/>
+      <c r="I352" s="2"/>
+      <c r="J352" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K352" s="5"/>
-      <c r="L352" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M352" s="5" t="s">
+      <c r="K352" s="2"/>
+      <c r="L352" s="4"/>
+      <c r="M352" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N352" s="5" t="s">
+      <c r="N352" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O352" s="5"/>
-      <c r="P352" s="5"/>
-      <c r="Q352" s="5"/>
-      <c r="R352" s="5"/>
-      <c r="S352" s="5"/>
-      <c r="T352" s="5"/>
-      <c r="U352" s="5" t="s">
+      <c r="O352" s="2"/>
+      <c r="P352" s="2"/>
+      <c r="Q352" s="2"/>
+      <c r="R352" s="2"/>
+      <c r="S352" s="2"/>
+      <c r="T352" s="2"/>
+      <c r="U352" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V352" s="5"/>
+      <c r="V352" s="2"/>
     </row>
     <row r="353" spans="1:22">
       <c r="A353" s="5" t="s">
@@ -23702,9 +23660,7 @@
         <v>903</v>
       </c>
       <c r="K353" s="5"/>
-      <c r="L353" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L353" s="4"/>
       <c r="M353" s="5" t="s">
         <v>90</v>
       </c>
@@ -23756,9 +23712,7 @@
         <v>904</v>
       </c>
       <c r="K354" s="5"/>
-      <c r="L354" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L354" s="4"/>
       <c r="M354" s="5" t="s">
         <v>90</v>
       </c>
@@ -23816,9 +23770,7 @@
       <c r="K355" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="L355" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L355" s="4"/>
       <c r="M355" s="5" t="s">
         <v>90</v>
       </c>
@@ -23876,9 +23828,7 @@
         <v>904</v>
       </c>
       <c r="K356" s="5"/>
-      <c r="L356" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L356" s="4"/>
       <c r="M356" s="5" t="s">
         <v>90</v>
       </c>
@@ -23907,44 +23857,42 @@
       <c r="V356" s="5"/>
     </row>
     <row r="357" spans="1:22">
-      <c r="A357" s="5" t="s">
+      <c r="A357" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="B357" s="5" t="s">
+      <c r="B357" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C357" s="5" t="s">
+      <c r="C357" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D357" s="5"/>
-      <c r="E357" s="5"/>
-      <c r="F357" s="5"/>
-      <c r="G357" s="5"/>
-      <c r="H357" s="5"/>
-      <c r="I357" s="5"/>
-      <c r="J357" s="5" t="s">
+      <c r="D357" s="2"/>
+      <c r="E357" s="2"/>
+      <c r="F357" s="2"/>
+      <c r="G357" s="2"/>
+      <c r="H357" s="2"/>
+      <c r="I357" s="2"/>
+      <c r="J357" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K357" s="5"/>
-      <c r="L357" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M357" s="5" t="s">
+      <c r="K357" s="2"/>
+      <c r="L357" s="4"/>
+      <c r="M357" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N357" s="5" t="s">
+      <c r="N357" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O357" s="5"/>
-      <c r="P357" s="5"/>
-      <c r="Q357" s="5"/>
-      <c r="R357" s="5"/>
-      <c r="S357" s="5"/>
-      <c r="T357" s="5"/>
-      <c r="U357" s="5" t="s">
+      <c r="O357" s="2"/>
+      <c r="P357" s="2"/>
+      <c r="Q357" s="2"/>
+      <c r="R357" s="2"/>
+      <c r="S357" s="2"/>
+      <c r="T357" s="2"/>
+      <c r="U357" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V357" s="5"/>
+      <c r="V357" s="2"/>
     </row>
     <row r="358" spans="1:22">
       <c r="A358" s="5" t="s">
@@ -23970,9 +23918,7 @@
         <v>903</v>
       </c>
       <c r="K358" s="5"/>
-      <c r="L358" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L358" s="4"/>
       <c r="M358" s="5" t="s">
         <v>91</v>
       </c>
@@ -24024,9 +23970,7 @@
         <v>904</v>
       </c>
       <c r="K359" s="5"/>
-      <c r="L359" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L359" s="4"/>
       <c r="M359" s="5" t="s">
         <v>91</v>
       </c>
@@ -24082,9 +24026,7 @@
         <v>904</v>
       </c>
       <c r="K360" s="5"/>
-      <c r="L360" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L360" s="4"/>
       <c r="M360" s="5" t="s">
         <v>91</v>
       </c>
@@ -24138,9 +24080,7 @@
         <v>904</v>
       </c>
       <c r="K361" s="5"/>
-      <c r="L361" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L361" s="4"/>
       <c r="M361" s="5" t="s">
         <v>91</v>
       </c>
@@ -24256,9 +24196,7 @@
         <v>904</v>
       </c>
       <c r="K363" s="5"/>
-      <c r="L363" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L363" s="4"/>
       <c r="M363" s="5" t="s">
         <v>91</v>
       </c>
@@ -24287,46 +24225,44 @@
       <c r="V363" s="5"/>
     </row>
     <row r="364" spans="1:22">
-      <c r="A364" s="5" t="s">
+      <c r="A364" s="2" t="s">
         <v>1653</v>
       </c>
-      <c r="B364" s="5" t="s">
+      <c r="B364" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C364" s="5" t="s">
+      <c r="C364" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D364" s="5"/>
-      <c r="E364" s="5"/>
-      <c r="F364" s="5"/>
-      <c r="G364" s="5"/>
-      <c r="H364" s="5"/>
-      <c r="I364" s="5"/>
-      <c r="J364" s="5" t="s">
+      <c r="D364" s="2"/>
+      <c r="E364" s="2"/>
+      <c r="F364" s="2"/>
+      <c r="G364" s="2"/>
+      <c r="H364" s="2"/>
+      <c r="I364" s="2"/>
+      <c r="J364" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="K364" s="5" t="s">
+      <c r="K364" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="L364" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M364" s="5" t="s">
+      <c r="L364" s="4"/>
+      <c r="M364" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N364" s="5" t="s">
+      <c r="N364" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O364" s="5"/>
-      <c r="P364" s="5"/>
-      <c r="Q364" s="5"/>
-      <c r="R364" s="5"/>
-      <c r="S364" s="5"/>
-      <c r="T364" s="5"/>
-      <c r="U364" s="5" t="s">
+      <c r="O364" s="2"/>
+      <c r="P364" s="2"/>
+      <c r="Q364" s="2"/>
+      <c r="R364" s="2"/>
+      <c r="S364" s="2"/>
+      <c r="T364" s="2"/>
+      <c r="U364" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="V364" s="5" t="s">
+      <c r="V364" s="2" t="s">
         <v>1070</v>
       </c>
     </row>
@@ -24354,9 +24290,7 @@
         <v>903</v>
       </c>
       <c r="K365" s="5"/>
-      <c r="L365" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L365" s="4"/>
       <c r="M365" s="5" t="s">
         <v>92</v>
       </c>
@@ -24408,9 +24342,7 @@
         <v>904</v>
       </c>
       <c r="K366" s="5"/>
-      <c r="L366" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L366" s="4"/>
       <c r="M366" s="5" t="s">
         <v>92</v>
       </c>
@@ -24466,9 +24398,7 @@
         <v>904</v>
       </c>
       <c r="K367" s="5"/>
-      <c r="L367" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L367" s="4"/>
       <c r="M367" s="5" t="s">
         <v>92</v>
       </c>
@@ -24495,46 +24425,44 @@
       <c r="V367" s="5"/>
     </row>
     <row r="368" spans="1:22">
-      <c r="A368" s="5" t="s">
+      <c r="A368" s="2" t="s">
         <v>1657</v>
       </c>
-      <c r="B368" s="5" t="s">
+      <c r="B368" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C368" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D368" s="5"/>
-      <c r="E368" s="5"/>
-      <c r="F368" s="5"/>
-      <c r="G368" s="5"/>
-      <c r="H368" s="5"/>
-      <c r="I368" s="5"/>
-      <c r="J368" s="5" t="s">
+      <c r="C368" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D368" s="2"/>
+      <c r="E368" s="2"/>
+      <c r="F368" s="2"/>
+      <c r="G368" s="2"/>
+      <c r="H368" s="2"/>
+      <c r="I368" s="2"/>
+      <c r="J368" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="K368" s="5" t="s">
+      <c r="K368" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="L368" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M368" s="5" t="s">
+      <c r="L368" s="4"/>
+      <c r="M368" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="N368" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O368" s="5"/>
-      <c r="P368" s="5"/>
-      <c r="Q368" s="5"/>
-      <c r="R368" s="5"/>
-      <c r="S368" s="5"/>
-      <c r="T368" s="5"/>
-      <c r="U368" s="5" t="s">
+      <c r="N368" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O368" s="2"/>
+      <c r="P368" s="2"/>
+      <c r="Q368" s="2"/>
+      <c r="R368" s="2"/>
+      <c r="S368" s="2"/>
+      <c r="T368" s="2"/>
+      <c r="U368" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="V368" s="5" t="s">
+      <c r="V368" s="2" t="s">
         <v>1070</v>
       </c>
     </row>
@@ -24562,9 +24490,7 @@
         <v>903</v>
       </c>
       <c r="K369" s="5"/>
-      <c r="L369" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L369" s="4"/>
       <c r="M369" s="5" t="s">
         <v>93</v>
       </c>
@@ -24616,9 +24542,7 @@
         <v>904</v>
       </c>
       <c r="K370" s="5"/>
-      <c r="L370" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L370" s="4"/>
       <c r="M370" s="5" t="s">
         <v>93</v>
       </c>
@@ -24676,9 +24600,7 @@
         <v>904</v>
       </c>
       <c r="K371" s="5"/>
-      <c r="L371" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L371" s="4"/>
       <c r="M371" s="5" t="s">
         <v>93</v>
       </c>
@@ -24736,9 +24658,7 @@
       <c r="K372" s="5" t="s">
         <v>1071</v>
       </c>
-      <c r="L372" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L372" s="4"/>
       <c r="M372" s="5" t="s">
         <v>93</v>
       </c>
@@ -24834,9 +24754,7 @@
         <v>903</v>
       </c>
       <c r="K374" s="5"/>
-      <c r="L374" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L374" s="4"/>
       <c r="M374" s="5" t="s">
         <v>94</v>
       </c>
@@ -24888,9 +24806,7 @@
         <v>904</v>
       </c>
       <c r="K375" s="5"/>
-      <c r="L375" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L375" s="4"/>
       <c r="M375" s="5" t="s">
         <v>94</v>
       </c>
@@ -24946,9 +24862,7 @@
         <v>904</v>
       </c>
       <c r="K376" s="5"/>
-      <c r="L376" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L376" s="4"/>
       <c r="M376" s="5" t="s">
         <v>94</v>
       </c>
@@ -25042,9 +24956,7 @@
         <v>903</v>
       </c>
       <c r="K378" s="5"/>
-      <c r="L378" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L378" s="4"/>
       <c r="M378" s="5" t="s">
         <v>95</v>
       </c>
@@ -25096,9 +25008,7 @@
         <v>904</v>
       </c>
       <c r="K379" s="5"/>
-      <c r="L379" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L379" s="4"/>
       <c r="M379" s="5" t="s">
         <v>95</v>
       </c>
@@ -25154,9 +25064,7 @@
         <v>904</v>
       </c>
       <c r="K380" s="5"/>
-      <c r="L380" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L380" s="4"/>
       <c r="M380" s="5" t="s">
         <v>95</v>
       </c>
@@ -25976,9 +25884,7 @@
         <v>904</v>
       </c>
       <c r="K396" s="5"/>
-      <c r="L396" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L396" s="4"/>
       <c r="M396" s="5" t="s">
         <v>98</v>
       </c>
@@ -26032,9 +25938,7 @@
         <v>904</v>
       </c>
       <c r="K397" s="5"/>
-      <c r="L397" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L397" s="4"/>
       <c r="M397" s="5" t="s">
         <v>98</v>
       </c>
@@ -26088,9 +25992,7 @@
         <v>904</v>
       </c>
       <c r="K398" s="5"/>
-      <c r="L398" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L398" s="4"/>
       <c r="M398" s="5" t="s">
         <v>98</v>
       </c>
@@ -26325,46 +26227,44 @@
       <c r="V402" s="5"/>
     </row>
     <row r="403" spans="1:22">
-      <c r="A403" s="5" t="s">
+      <c r="A403" s="2" t="s">
         <v>1692</v>
       </c>
-      <c r="B403" s="5" t="s">
+      <c r="B403" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C403" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D403" s="5"/>
-      <c r="E403" s="5"/>
-      <c r="F403" s="5"/>
-      <c r="G403" s="5"/>
-      <c r="H403" s="5"/>
-      <c r="I403" s="5"/>
-      <c r="J403" s="5" t="s">
+      <c r="C403" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D403" s="2"/>
+      <c r="E403" s="2"/>
+      <c r="F403" s="2"/>
+      <c r="G403" s="2"/>
+      <c r="H403" s="2"/>
+      <c r="I403" s="2"/>
+      <c r="J403" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="K403" s="5" t="s">
+      <c r="K403" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="L403" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M403" s="5" t="s">
+      <c r="L403" s="4"/>
+      <c r="M403" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N403" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O403" s="5"/>
-      <c r="P403" s="5"/>
-      <c r="Q403" s="5"/>
-      <c r="R403" s="5"/>
-      <c r="S403" s="5"/>
-      <c r="T403" s="5"/>
-      <c r="U403" s="5" t="s">
+      <c r="N403" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O403" s="2"/>
+      <c r="P403" s="2"/>
+      <c r="Q403" s="2"/>
+      <c r="R403" s="2"/>
+      <c r="S403" s="2"/>
+      <c r="T403" s="2"/>
+      <c r="U403" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="V403" s="5" t="s">
+      <c r="V403" s="2" t="s">
         <v>1077</v>
       </c>
     </row>
@@ -26899,46 +26799,44 @@
       <c r="V415" s="5"/>
     </row>
     <row r="416" spans="1:22">
-      <c r="A416" s="5" t="s">
+      <c r="A416" s="2" t="s">
         <v>1705</v>
       </c>
-      <c r="B416" s="5" t="s">
+      <c r="B416" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C416" s="5" t="s">
+      <c r="C416" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D416" s="5"/>
-      <c r="E416" s="5"/>
-      <c r="F416" s="5"/>
-      <c r="G416" s="5"/>
-      <c r="H416" s="5"/>
-      <c r="I416" s="5"/>
-      <c r="J416" s="5" t="s">
+      <c r="D416" s="2"/>
+      <c r="E416" s="2"/>
+      <c r="F416" s="2"/>
+      <c r="G416" s="2"/>
+      <c r="H416" s="2"/>
+      <c r="I416" s="2"/>
+      <c r="J416" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="K416" s="5" t="s">
+      <c r="K416" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="L416" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M416" s="5" t="s">
+      <c r="L416" s="4"/>
+      <c r="M416" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N416" s="5" t="s">
+      <c r="N416" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O416" s="5"/>
-      <c r="P416" s="5"/>
-      <c r="Q416" s="5"/>
-      <c r="R416" s="5"/>
-      <c r="S416" s="5"/>
-      <c r="T416" s="5"/>
-      <c r="U416" s="5" t="s">
+      <c r="O416" s="2"/>
+      <c r="P416" s="2"/>
+      <c r="Q416" s="2"/>
+      <c r="R416" s="2"/>
+      <c r="S416" s="2"/>
+      <c r="T416" s="2"/>
+      <c r="U416" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="V416" s="5" t="s">
+      <c r="V416" s="2" t="s">
         <v>1057</v>
       </c>
     </row>
@@ -27401,44 +27299,42 @@
       <c r="V425" s="5"/>
     </row>
     <row r="426" spans="1:22">
-      <c r="A426" s="5" t="s">
+      <c r="A426" s="2" t="s">
         <v>1715</v>
       </c>
-      <c r="B426" s="5" t="s">
+      <c r="B426" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C426" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D426" s="5"/>
-      <c r="E426" s="5"/>
-      <c r="F426" s="5"/>
-      <c r="G426" s="5"/>
-      <c r="H426" s="5"/>
-      <c r="I426" s="5"/>
-      <c r="J426" s="5" t="s">
+      <c r="C426" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D426" s="2"/>
+      <c r="E426" s="2"/>
+      <c r="F426" s="2"/>
+      <c r="G426" s="2"/>
+      <c r="H426" s="2"/>
+      <c r="I426" s="2"/>
+      <c r="J426" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K426" s="5"/>
-      <c r="L426" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M426" s="5" t="s">
+      <c r="K426" s="2"/>
+      <c r="L426" s="4"/>
+      <c r="M426" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N426" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O426" s="5"/>
-      <c r="P426" s="5"/>
-      <c r="Q426" s="5"/>
-      <c r="R426" s="5"/>
-      <c r="S426" s="5"/>
-      <c r="T426" s="5"/>
-      <c r="U426" s="5" t="s">
+      <c r="N426" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O426" s="2"/>
+      <c r="P426" s="2"/>
+      <c r="Q426" s="2"/>
+      <c r="R426" s="2"/>
+      <c r="S426" s="2"/>
+      <c r="T426" s="2"/>
+      <c r="U426" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V426" s="5"/>
+      <c r="V426" s="2"/>
     </row>
     <row r="427" spans="1:22">
       <c r="A427" s="5" t="s">
@@ -28544,9 +28440,7 @@
         <v>908</v>
       </c>
       <c r="K451" s="5"/>
-      <c r="L451" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L451" s="4"/>
       <c r="M451" s="5" t="s">
         <v>105</v>
       </c>
@@ -28600,9 +28494,7 @@
         <v>908</v>
       </c>
       <c r="K452" s="5"/>
-      <c r="L452" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L452" s="4"/>
       <c r="M452" s="5" t="s">
         <v>105</v>
       </c>
@@ -28656,9 +28548,7 @@
         <v>908</v>
       </c>
       <c r="K453" s="5"/>
-      <c r="L453" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L453" s="4"/>
       <c r="M453" s="5" t="s">
         <v>105</v>
       </c>
@@ -29506,9 +29396,7 @@
         <v>904</v>
       </c>
       <c r="K471" s="5"/>
-      <c r="L471" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L471" s="4"/>
       <c r="M471" s="5" t="s">
         <v>108</v>
       </c>
@@ -29535,46 +29423,44 @@
       <c r="V471" s="5"/>
     </row>
     <row r="472" spans="1:22">
-      <c r="A472" s="5" t="s">
+      <c r="A472" s="2" t="s">
         <v>1761</v>
       </c>
-      <c r="B472" s="5" t="s">
+      <c r="B472" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C472" s="5" t="s">
+      <c r="C472" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D472" s="5"/>
-      <c r="E472" s="5"/>
-      <c r="F472" s="5"/>
-      <c r="G472" s="5"/>
-      <c r="H472" s="5"/>
-      <c r="I472" s="5"/>
-      <c r="J472" s="5" t="s">
+      <c r="D472" s="2"/>
+      <c r="E472" s="2"/>
+      <c r="F472" s="2"/>
+      <c r="G472" s="2"/>
+      <c r="H472" s="2"/>
+      <c r="I472" s="2"/>
+      <c r="J472" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="K472" s="5" t="s">
+      <c r="K472" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="L472" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M472" s="5" t="s">
+      <c r="L472" s="4"/>
+      <c r="M472" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="N472" s="5" t="s">
+      <c r="N472" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O472" s="5"/>
-      <c r="P472" s="5"/>
-      <c r="Q472" s="5"/>
-      <c r="R472" s="5"/>
-      <c r="S472" s="5"/>
-      <c r="T472" s="5"/>
-      <c r="U472" s="5" t="s">
+      <c r="O472" s="2"/>
+      <c r="P472" s="2"/>
+      <c r="Q472" s="2"/>
+      <c r="R472" s="2"/>
+      <c r="S472" s="2"/>
+      <c r="T472" s="2"/>
+      <c r="U472" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="V472" s="5" t="s">
+      <c r="V472" s="2" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -30991,46 +30877,44 @@
       <c r="V499" s="5"/>
     </row>
     <row r="500" spans="1:22">
-      <c r="A500" s="5" t="s">
+      <c r="A500" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="B500" s="5" t="s">
+      <c r="B500" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C500" s="5" t="s">
+      <c r="C500" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D500" s="5"/>
-      <c r="E500" s="5"/>
-      <c r="F500" s="5"/>
-      <c r="G500" s="5"/>
-      <c r="H500" s="5"/>
-      <c r="I500" s="5"/>
-      <c r="J500" s="5" t="s">
+      <c r="D500" s="2"/>
+      <c r="E500" s="2"/>
+      <c r="F500" s="2"/>
+      <c r="G500" s="2"/>
+      <c r="H500" s="2"/>
+      <c r="I500" s="2"/>
+      <c r="J500" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="K500" s="5" t="s">
+      <c r="K500" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="L500" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M500" s="5" t="s">
+      <c r="L500" s="4"/>
+      <c r="M500" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="N500" s="5" t="s">
+      <c r="N500" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O500" s="5"/>
-      <c r="P500" s="5"/>
-      <c r="Q500" s="5"/>
-      <c r="R500" s="5"/>
-      <c r="S500" s="5"/>
-      <c r="T500" s="5"/>
-      <c r="U500" s="5" t="s">
+      <c r="O500" s="2"/>
+      <c r="P500" s="2"/>
+      <c r="Q500" s="2"/>
+      <c r="R500" s="2"/>
+      <c r="S500" s="2"/>
+      <c r="T500" s="2"/>
+      <c r="U500" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="V500" s="5" t="s">
+      <c r="V500" s="2" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -31259,44 +31143,42 @@
       <c r="V504" s="5"/>
     </row>
     <row r="505" spans="1:22">
-      <c r="A505" s="5" t="s">
+      <c r="A505" s="2" t="s">
         <v>1794</v>
       </c>
-      <c r="B505" s="5" t="s">
+      <c r="B505" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C505" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D505" s="5"/>
-      <c r="E505" s="5"/>
-      <c r="F505" s="5"/>
-      <c r="G505" s="5"/>
-      <c r="H505" s="5"/>
-      <c r="I505" s="5"/>
-      <c r="J505" s="5" t="s">
+      <c r="C505" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D505" s="2"/>
+      <c r="E505" s="2"/>
+      <c r="F505" s="2"/>
+      <c r="G505" s="2"/>
+      <c r="H505" s="2"/>
+      <c r="I505" s="2"/>
+      <c r="J505" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K505" s="5"/>
-      <c r="L505" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M505" s="5" t="s">
+      <c r="K505" s="2"/>
+      <c r="L505" s="4"/>
+      <c r="M505" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="N505" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O505" s="5"/>
-      <c r="P505" s="5"/>
-      <c r="Q505" s="5"/>
-      <c r="R505" s="5"/>
-      <c r="S505" s="5"/>
-      <c r="T505" s="5"/>
-      <c r="U505" s="5" t="s">
+      <c r="N505" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O505" s="2"/>
+      <c r="P505" s="2"/>
+      <c r="Q505" s="2"/>
+      <c r="R505" s="2"/>
+      <c r="S505" s="2"/>
+      <c r="T505" s="2"/>
+      <c r="U505" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V505" s="5"/>
+      <c r="V505" s="2"/>
     </row>
     <row r="506" spans="1:22">
       <c r="A506" s="5" t="s">
@@ -31434,9 +31316,7 @@
         <v>904</v>
       </c>
       <c r="K508" s="5"/>
-      <c r="L508" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L508" s="4"/>
       <c r="M508" s="5" t="s">
         <v>117</v>
       </c>
@@ -31658,9 +31538,7 @@
         <v>908</v>
       </c>
       <c r="K512" s="5"/>
-      <c r="L512" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L512" s="4"/>
       <c r="M512" s="5" t="s">
         <v>105</v>
       </c>
@@ -31714,9 +31592,7 @@
         <v>908</v>
       </c>
       <c r="K513" s="5"/>
-      <c r="L513" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L513" s="4"/>
       <c r="M513" s="5" t="s">
         <v>105</v>
       </c>
@@ -32400,9 +32276,7 @@
         <v>904</v>
       </c>
       <c r="K528" s="5"/>
-      <c r="L528" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L528" s="4"/>
       <c r="M528" s="5" t="s">
         <v>108</v>
       </c>
@@ -32568,9 +32442,7 @@
         <v>904</v>
       </c>
       <c r="K531" s="5"/>
-      <c r="L531" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L531" s="4"/>
       <c r="M531" s="5" t="s">
         <v>118</v>
       </c>
@@ -32624,9 +32496,7 @@
         <v>904</v>
       </c>
       <c r="K532" s="5"/>
-      <c r="L532" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L532" s="4"/>
       <c r="M532" s="5" t="s">
         <v>118</v>
       </c>
@@ -32680,9 +32550,7 @@
         <v>904</v>
       </c>
       <c r="K533" s="5"/>
-      <c r="L533" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L533" s="4"/>
       <c r="M533" s="5" t="s">
         <v>118</v>
       </c>
@@ -32848,9 +32716,7 @@
         <v>904</v>
       </c>
       <c r="K536" s="5"/>
-      <c r="L536" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L536" s="4"/>
       <c r="M536" s="5" t="s">
         <v>119</v>
       </c>
@@ -33016,9 +32882,7 @@
         <v>904</v>
       </c>
       <c r="K539" s="5"/>
-      <c r="L539" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L539" s="4"/>
       <c r="M539" s="5" t="s">
         <v>120</v>
       </c>
@@ -33240,9 +33104,7 @@
         <v>904</v>
       </c>
       <c r="K543" s="5"/>
-      <c r="L543" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L543" s="4"/>
       <c r="M543" s="5" t="s">
         <v>121</v>
       </c>
@@ -33296,9 +33158,7 @@
         <v>904</v>
       </c>
       <c r="K544" s="5"/>
-      <c r="L544" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L544" s="4"/>
       <c r="M544" s="5" t="s">
         <v>121</v>
       </c>
@@ -33612,9 +33472,7 @@
         <v>904</v>
       </c>
       <c r="K550" s="5"/>
-      <c r="L550" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L550" s="4"/>
       <c r="M550" s="5" t="s">
         <v>122</v>
       </c>
@@ -33641,46 +33499,44 @@
       <c r="V550" s="5"/>
     </row>
     <row r="551" spans="1:22">
-      <c r="A551" s="5" t="s">
+      <c r="A551" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="B551" s="5" t="s">
+      <c r="B551" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C551" s="5" t="s">
+      <c r="C551" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D551" s="5"/>
-      <c r="E551" s="5"/>
-      <c r="F551" s="5"/>
-      <c r="G551" s="5"/>
-      <c r="H551" s="5"/>
-      <c r="I551" s="5"/>
-      <c r="J551" s="5" t="s">
+      <c r="D551" s="2"/>
+      <c r="E551" s="2"/>
+      <c r="F551" s="2"/>
+      <c r="G551" s="2"/>
+      <c r="H551" s="2"/>
+      <c r="I551" s="2"/>
+      <c r="J551" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="K551" s="5" t="s">
+      <c r="K551" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="L551" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M551" s="5" t="s">
+      <c r="L551" s="4"/>
+      <c r="M551" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="N551" s="5" t="s">
+      <c r="N551" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O551" s="5"/>
-      <c r="P551" s="5"/>
-      <c r="Q551" s="5"/>
-      <c r="R551" s="5"/>
-      <c r="S551" s="5"/>
-      <c r="T551" s="5"/>
-      <c r="U551" s="5" t="s">
+      <c r="O551" s="2"/>
+      <c r="P551" s="2"/>
+      <c r="Q551" s="2"/>
+      <c r="R551" s="2"/>
+      <c r="S551" s="2"/>
+      <c r="T551" s="2"/>
+      <c r="U551" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="V551" s="5" t="s">
+      <c r="V551" s="2" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -33961,44 +33817,42 @@
       </c>
     </row>
     <row r="557" spans="1:22">
-      <c r="A557" s="5" t="s">
+      <c r="A557" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="B557" s="5" t="s">
+      <c r="B557" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C557" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D557" s="5"/>
-      <c r="E557" s="5"/>
-      <c r="F557" s="5"/>
-      <c r="G557" s="5"/>
-      <c r="H557" s="5"/>
-      <c r="I557" s="5"/>
-      <c r="J557" s="5" t="s">
+      <c r="C557" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D557" s="2"/>
+      <c r="E557" s="2"/>
+      <c r="F557" s="2"/>
+      <c r="G557" s="2"/>
+      <c r="H557" s="2"/>
+      <c r="I557" s="2"/>
+      <c r="J557" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K557" s="5"/>
-      <c r="L557" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M557" s="5" t="s">
+      <c r="K557" s="2"/>
+      <c r="L557" s="4"/>
+      <c r="M557" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N557" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O557" s="5"/>
-      <c r="P557" s="5"/>
-      <c r="Q557" s="5"/>
-      <c r="R557" s="5"/>
-      <c r="S557" s="5"/>
-      <c r="T557" s="5"/>
-      <c r="U557" s="5" t="s">
+      <c r="N557" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O557" s="2"/>
+      <c r="P557" s="2"/>
+      <c r="Q557" s="2"/>
+      <c r="R557" s="2"/>
+      <c r="S557" s="2"/>
+      <c r="T557" s="2"/>
+      <c r="U557" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V557" s="5"/>
+      <c r="V557" s="2"/>
     </row>
     <row r="558" spans="1:22">
       <c r="A558" s="5" t="s">
@@ -34304,9 +34158,7 @@
         <v>904</v>
       </c>
       <c r="K563" s="5"/>
-      <c r="L563" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L563" s="4"/>
       <c r="M563" s="5" t="s">
         <v>125</v>
       </c>
@@ -34333,44 +34185,42 @@
       <c r="V563" s="5"/>
     </row>
     <row r="564" spans="1:22">
-      <c r="A564" s="5" t="s">
+      <c r="A564" s="2" t="s">
         <v>1853</v>
       </c>
-      <c r="B564" s="5" t="s">
+      <c r="B564" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C564" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D564" s="5"/>
-      <c r="E564" s="5"/>
-      <c r="F564" s="5"/>
-      <c r="G564" s="5"/>
-      <c r="H564" s="5"/>
-      <c r="I564" s="5"/>
-      <c r="J564" s="5" t="s">
+      <c r="C564" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D564" s="2"/>
+      <c r="E564" s="2"/>
+      <c r="F564" s="2"/>
+      <c r="G564" s="2"/>
+      <c r="H564" s="2"/>
+      <c r="I564" s="2"/>
+      <c r="J564" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K564" s="5"/>
-      <c r="L564" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M564" s="5" t="s">
+      <c r="K564" s="2"/>
+      <c r="L564" s="4"/>
+      <c r="M564" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N564" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O564" s="5"/>
-      <c r="P564" s="5"/>
-      <c r="Q564" s="5"/>
-      <c r="R564" s="5"/>
-      <c r="S564" s="5"/>
-      <c r="T564" s="5"/>
-      <c r="U564" s="5" t="s">
+      <c r="N564" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O564" s="2"/>
+      <c r="P564" s="2"/>
+      <c r="Q564" s="2"/>
+      <c r="R564" s="2"/>
+      <c r="S564" s="2"/>
+      <c r="T564" s="2"/>
+      <c r="U564" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V564" s="5"/>
+      <c r="V564" s="2"/>
     </row>
     <row r="565" spans="1:22">
       <c r="A565" s="5" t="s">
@@ -34732,9 +34582,7 @@
         <v>904</v>
       </c>
       <c r="K571" s="5"/>
-      <c r="L571" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L571" s="4"/>
       <c r="M571" s="5" t="s">
         <v>53</v>
       </c>
@@ -35361,44 +35209,42 @@
       <c r="V582" s="5"/>
     </row>
     <row r="583" spans="1:22">
-      <c r="A583" s="5" t="s">
+      <c r="A583" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="B583" s="5" t="s">
+      <c r="B583" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C583" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D583" s="5"/>
-      <c r="E583" s="5"/>
-      <c r="F583" s="5"/>
-      <c r="G583" s="5"/>
-      <c r="H583" s="5"/>
-      <c r="I583" s="5"/>
-      <c r="J583" s="5" t="s">
+      <c r="C583" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D583" s="2"/>
+      <c r="E583" s="2"/>
+      <c r="F583" s="2"/>
+      <c r="G583" s="2"/>
+      <c r="H583" s="2"/>
+      <c r="I583" s="2"/>
+      <c r="J583" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K583" s="5"/>
-      <c r="L583" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M583" s="5" t="s">
+      <c r="K583" s="2"/>
+      <c r="L583" s="4"/>
+      <c r="M583" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N583" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O583" s="5"/>
-      <c r="P583" s="5"/>
-      <c r="Q583" s="5"/>
-      <c r="R583" s="5"/>
-      <c r="S583" s="5"/>
-      <c r="T583" s="5"/>
-      <c r="U583" s="5" t="s">
+      <c r="N583" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O583" s="2"/>
+      <c r="P583" s="2"/>
+      <c r="Q583" s="2"/>
+      <c r="R583" s="2"/>
+      <c r="S583" s="2"/>
+      <c r="T583" s="2"/>
+      <c r="U583" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V583" s="5"/>
+      <c r="V583" s="2"/>
     </row>
     <row r="584" spans="1:22">
       <c r="A584" s="5" t="s">
@@ -36019,46 +35865,44 @@
       <c r="V597" s="5"/>
     </row>
     <row r="598" spans="1:22">
-      <c r="A598" s="5" t="s">
+      <c r="A598" s="2" t="s">
         <v>1887</v>
       </c>
-      <c r="B598" s="5" t="s">
+      <c r="B598" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C598" s="5" t="s">
+      <c r="C598" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D598" s="5"/>
-      <c r="E598" s="5"/>
-      <c r="F598" s="5"/>
-      <c r="G598" s="5"/>
-      <c r="H598" s="5"/>
-      <c r="I598" s="5"/>
-      <c r="J598" s="5" t="s">
+      <c r="D598" s="2"/>
+      <c r="E598" s="2"/>
+      <c r="F598" s="2"/>
+      <c r="G598" s="2"/>
+      <c r="H598" s="2"/>
+      <c r="I598" s="2"/>
+      <c r="J598" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="K598" s="5" t="s">
+      <c r="K598" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="L598" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M598" s="5" t="s">
+      <c r="L598" s="4"/>
+      <c r="M598" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N598" s="5" t="s">
+      <c r="N598" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O598" s="5"/>
-      <c r="P598" s="5"/>
-      <c r="Q598" s="5"/>
-      <c r="R598" s="5"/>
-      <c r="S598" s="5"/>
-      <c r="T598" s="5"/>
-      <c r="U598" s="5" t="s">
+      <c r="O598" s="2"/>
+      <c r="P598" s="2"/>
+      <c r="Q598" s="2"/>
+      <c r="R598" s="2"/>
+      <c r="S598" s="2"/>
+      <c r="T598" s="2"/>
+      <c r="U598" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="V598" s="5" t="s">
+      <c r="V598" s="2" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -36465,44 +36309,42 @@
       <c r="V606" s="5"/>
     </row>
     <row r="607" spans="1:22">
-      <c r="A607" s="5" t="s">
+      <c r="A607" s="2" t="s">
         <v>1896</v>
       </c>
-      <c r="B607" s="5" t="s">
+      <c r="B607" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C607" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D607" s="5"/>
-      <c r="E607" s="5"/>
-      <c r="F607" s="5"/>
-      <c r="G607" s="5"/>
-      <c r="H607" s="5"/>
-      <c r="I607" s="5"/>
-      <c r="J607" s="5" t="s">
+      <c r="C607" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D607" s="2"/>
+      <c r="E607" s="2"/>
+      <c r="F607" s="2"/>
+      <c r="G607" s="2"/>
+      <c r="H607" s="2"/>
+      <c r="I607" s="2"/>
+      <c r="J607" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K607" s="5"/>
-      <c r="L607" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M607" s="5" t="s">
+      <c r="K607" s="2"/>
+      <c r="L607" s="4"/>
+      <c r="M607" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N607" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O607" s="5"/>
-      <c r="P607" s="5"/>
-      <c r="Q607" s="5"/>
-      <c r="R607" s="5"/>
-      <c r="S607" s="5"/>
-      <c r="T607" s="5"/>
-      <c r="U607" s="5" t="s">
+      <c r="N607" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O607" s="2"/>
+      <c r="P607" s="2"/>
+      <c r="Q607" s="2"/>
+      <c r="R607" s="2"/>
+      <c r="S607" s="2"/>
+      <c r="T607" s="2"/>
+      <c r="U607" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V607" s="5"/>
+      <c r="V607" s="2"/>
     </row>
     <row r="608" spans="1:22">
       <c r="A608" s="5" t="s">
@@ -38041,44 +37883,42 @@
       <c r="V637" s="5"/>
     </row>
     <row r="638" spans="1:22">
-      <c r="A638" s="5" t="s">
+      <c r="A638" s="2" t="s">
         <v>1927</v>
       </c>
-      <c r="B638" s="5" t="s">
+      <c r="B638" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C638" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D638" s="5"/>
-      <c r="E638" s="5"/>
-      <c r="F638" s="5"/>
-      <c r="G638" s="5"/>
-      <c r="H638" s="5"/>
-      <c r="I638" s="5"/>
-      <c r="J638" s="5" t="s">
+      <c r="C638" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D638" s="2"/>
+      <c r="E638" s="2"/>
+      <c r="F638" s="2"/>
+      <c r="G638" s="2"/>
+      <c r="H638" s="2"/>
+      <c r="I638" s="2"/>
+      <c r="J638" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K638" s="5"/>
-      <c r="L638" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M638" s="5" t="s">
+      <c r="K638" s="2"/>
+      <c r="L638" s="4"/>
+      <c r="M638" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N638" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O638" s="5"/>
-      <c r="P638" s="5"/>
-      <c r="Q638" s="5"/>
-      <c r="R638" s="5"/>
-      <c r="S638" s="5"/>
-      <c r="T638" s="5"/>
-      <c r="U638" s="5" t="s">
+      <c r="N638" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O638" s="2"/>
+      <c r="P638" s="2"/>
+      <c r="Q638" s="2"/>
+      <c r="R638" s="2"/>
+      <c r="S638" s="2"/>
+      <c r="T638" s="2"/>
+      <c r="U638" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V638" s="5"/>
+      <c r="V638" s="2"/>
     </row>
     <row r="639" spans="1:22">
       <c r="A639" s="5" t="s">
@@ -38324,9 +38164,7 @@
         <v>904</v>
       </c>
       <c r="K643" s="5"/>
-      <c r="L643" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L643" s="4"/>
       <c r="M643" s="5" t="s">
         <v>135</v>
       </c>
@@ -38380,9 +38218,7 @@
         <v>904</v>
       </c>
       <c r="K644" s="5"/>
-      <c r="L644" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L644" s="4"/>
       <c r="M644" s="5" t="s">
         <v>135</v>
       </c>
@@ -38436,9 +38272,7 @@
         <v>904</v>
       </c>
       <c r="K645" s="5"/>
-      <c r="L645" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L645" s="4"/>
       <c r="M645" s="5" t="s">
         <v>135</v>
       </c>
@@ -38492,9 +38326,7 @@
         <v>904</v>
       </c>
       <c r="K646" s="5"/>
-      <c r="L646" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L646" s="4"/>
       <c r="M646" s="5" t="s">
         <v>135</v>
       </c>
@@ -38548,9 +38380,7 @@
         <v>995</v>
       </c>
       <c r="K647" s="5"/>
-      <c r="L647" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L647" s="4"/>
       <c r="M647" s="5" t="s">
         <v>135</v>
       </c>
@@ -38604,9 +38434,7 @@
         <v>904</v>
       </c>
       <c r="K648" s="5"/>
-      <c r="L648" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L648" s="4"/>
       <c r="M648" s="5" t="s">
         <v>135</v>
       </c>
@@ -38720,9 +38548,7 @@
         <v>996</v>
       </c>
       <c r="K650" s="5"/>
-      <c r="L650" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L650" s="4"/>
       <c r="M650" s="5" t="s">
         <v>135</v>
       </c>
@@ -38776,9 +38602,7 @@
         <v>996</v>
       </c>
       <c r="K651" s="5"/>
-      <c r="L651" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L651" s="4"/>
       <c r="M651" s="5" t="s">
         <v>135</v>
       </c>
@@ -38832,9 +38656,7 @@
         <v>997</v>
       </c>
       <c r="K652" s="5"/>
-      <c r="L652" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L652" s="4"/>
       <c r="M652" s="5" t="s">
         <v>135</v>
       </c>
@@ -38890,9 +38712,7 @@
       <c r="K653" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="L653" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L653" s="4"/>
       <c r="M653" s="5" t="s">
         <v>135</v>
       </c>
@@ -39545,46 +39365,44 @@
       <c r="V667" s="5"/>
     </row>
     <row r="668" spans="1:22">
-      <c r="A668" s="5" t="s">
+      <c r="A668" s="2" t="s">
         <v>1957</v>
       </c>
-      <c r="B668" s="5" t="s">
+      <c r="B668" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C668" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D668" s="5"/>
-      <c r="E668" s="5"/>
-      <c r="F668" s="5"/>
-      <c r="G668" s="5"/>
-      <c r="H668" s="5"/>
-      <c r="I668" s="5"/>
-      <c r="J668" s="5" t="s">
+      <c r="C668" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D668" s="2"/>
+      <c r="E668" s="2"/>
+      <c r="F668" s="2"/>
+      <c r="G668" s="2"/>
+      <c r="H668" s="2"/>
+      <c r="I668" s="2"/>
+      <c r="J668" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="K668" s="5" t="s">
+      <c r="K668" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="L668" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M668" s="5" t="s">
+      <c r="L668" s="4"/>
+      <c r="M668" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N668" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O668" s="5"/>
-      <c r="P668" s="5"/>
-      <c r="Q668" s="5"/>
-      <c r="R668" s="5"/>
-      <c r="S668" s="5"/>
-      <c r="T668" s="5"/>
-      <c r="U668" s="5" t="s">
+      <c r="N668" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O668" s="2"/>
+      <c r="P668" s="2"/>
+      <c r="Q668" s="2"/>
+      <c r="R668" s="2"/>
+      <c r="S668" s="2"/>
+      <c r="T668" s="2"/>
+      <c r="U668" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="V668" s="5" t="s">
+      <c r="V668" s="2" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -39832,9 +39650,7 @@
         <v>904</v>
       </c>
       <c r="K673" s="5"/>
-      <c r="L673" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L673" s="4"/>
       <c r="M673" s="5" t="s">
         <v>140</v>
       </c>
@@ -41050,9 +40866,7 @@
         <v>904</v>
       </c>
       <c r="K696" s="5"/>
-      <c r="L696" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L696" s="4"/>
       <c r="M696" s="5" t="s">
         <v>98</v>
       </c>
@@ -41106,9 +40920,7 @@
         <v>904</v>
       </c>
       <c r="K697" s="5"/>
-      <c r="L697" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L697" s="4"/>
       <c r="M697" s="5" t="s">
         <v>98</v>
       </c>
@@ -41162,9 +40974,7 @@
         <v>904</v>
       </c>
       <c r="K698" s="5"/>
-      <c r="L698" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L698" s="4"/>
       <c r="M698" s="5" t="s">
         <v>98</v>
       </c>
@@ -45595,44 +45405,42 @@
       <c r="V805" s="5"/>
     </row>
     <row r="806" spans="1:22">
-      <c r="A806" s="5" t="s">
+      <c r="A806" s="2" t="s">
         <v>2093</v>
       </c>
-      <c r="B806" s="5" t="s">
+      <c r="B806" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C806" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D806" s="5"/>
-      <c r="E806" s="5"/>
-      <c r="F806" s="5"/>
-      <c r="G806" s="5"/>
-      <c r="H806" s="5"/>
-      <c r="I806" s="5"/>
-      <c r="J806" s="5" t="s">
+      <c r="C806" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D806" s="2"/>
+      <c r="E806" s="2"/>
+      <c r="F806" s="2"/>
+      <c r="G806" s="2"/>
+      <c r="H806" s="2"/>
+      <c r="I806" s="2"/>
+      <c r="J806" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K806" s="5"/>
-      <c r="L806" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M806" s="5" t="s">
+      <c r="K806" s="2"/>
+      <c r="L806" s="4"/>
+      <c r="M806" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N806" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O806" s="5"/>
-      <c r="P806" s="5"/>
-      <c r="Q806" s="5"/>
-      <c r="R806" s="5"/>
-      <c r="S806" s="5"/>
-      <c r="T806" s="5"/>
-      <c r="U806" s="5" t="s">
+      <c r="N806" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O806" s="2"/>
+      <c r="P806" s="2"/>
+      <c r="Q806" s="2"/>
+      <c r="R806" s="2"/>
+      <c r="S806" s="2"/>
+      <c r="T806" s="2"/>
+      <c r="U806" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V806" s="5"/>
+      <c r="V806" s="2"/>
     </row>
     <row r="807" spans="1:22">
       <c r="A807" s="5" t="s">
@@ -45834,9 +45642,7 @@
       <c r="K810" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="L810" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L810" s="4"/>
       <c r="M810" s="5" t="s">
         <v>160</v>
       </c>
@@ -45969,46 +45775,44 @@
       <c r="V812" s="5"/>
     </row>
     <row r="813" spans="1:22">
-      <c r="A813" s="5" t="s">
+      <c r="A813" s="2" t="s">
         <v>2100</v>
       </c>
-      <c r="B813" s="5" t="s">
+      <c r="B813" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C813" s="5" t="s">
+      <c r="C813" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D813" s="5"/>
-      <c r="E813" s="5"/>
-      <c r="F813" s="5"/>
-      <c r="G813" s="5"/>
-      <c r="H813" s="5"/>
-      <c r="I813" s="5"/>
-      <c r="J813" s="5" t="s">
+      <c r="D813" s="2"/>
+      <c r="E813" s="2"/>
+      <c r="F813" s="2"/>
+      <c r="G813" s="2"/>
+      <c r="H813" s="2"/>
+      <c r="I813" s="2"/>
+      <c r="J813" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="K813" s="5" t="s">
+      <c r="K813" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="L813" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M813" s="5" t="s">
+      <c r="L813" s="4"/>
+      <c r="M813" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N813" s="5" t="s">
+      <c r="N813" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O813" s="5"/>
-      <c r="P813" s="5"/>
-      <c r="Q813" s="5"/>
-      <c r="R813" s="5"/>
-      <c r="S813" s="5"/>
-      <c r="T813" s="5"/>
-      <c r="U813" s="5" t="s">
+      <c r="O813" s="2"/>
+      <c r="P813" s="2"/>
+      <c r="Q813" s="2"/>
+      <c r="R813" s="2"/>
+      <c r="S813" s="2"/>
+      <c r="T813" s="2"/>
+      <c r="U813" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="V813" s="5" t="s">
+      <c r="V813" s="2" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -46247,44 +46051,42 @@
       <c r="V818" s="5"/>
     </row>
     <row r="819" spans="1:22">
-      <c r="A819" s="5" t="s">
+      <c r="A819" s="2" t="s">
         <v>2106</v>
       </c>
-      <c r="B819" s="5" t="s">
+      <c r="B819" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C819" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D819" s="5"/>
-      <c r="E819" s="5"/>
-      <c r="F819" s="5"/>
-      <c r="G819" s="5"/>
-      <c r="H819" s="5"/>
-      <c r="I819" s="5"/>
-      <c r="J819" s="5" t="s">
+      <c r="C819" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D819" s="2"/>
+      <c r="E819" s="2"/>
+      <c r="F819" s="2"/>
+      <c r="G819" s="2"/>
+      <c r="H819" s="2"/>
+      <c r="I819" s="2"/>
+      <c r="J819" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K819" s="5"/>
-      <c r="L819" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M819" s="5" t="s">
+      <c r="K819" s="2"/>
+      <c r="L819" s="4"/>
+      <c r="M819" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="N819" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O819" s="5"/>
-      <c r="P819" s="5"/>
-      <c r="Q819" s="5"/>
-      <c r="R819" s="5"/>
-      <c r="S819" s="5"/>
-      <c r="T819" s="5"/>
-      <c r="U819" s="5" t="s">
+      <c r="N819" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O819" s="2"/>
+      <c r="P819" s="2"/>
+      <c r="Q819" s="2"/>
+      <c r="R819" s="2"/>
+      <c r="S819" s="2"/>
+      <c r="T819" s="2"/>
+      <c r="U819" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V819" s="5"/>
+      <c r="V819" s="2"/>
     </row>
     <row r="820" spans="1:22">
       <c r="A820" s="5" t="s">
@@ -46499,44 +46301,42 @@
       <c r="V823" s="5"/>
     </row>
     <row r="824" spans="1:22">
-      <c r="A824" s="5" t="s">
+      <c r="A824" s="2" t="s">
         <v>2111</v>
       </c>
-      <c r="B824" s="5" t="s">
+      <c r="B824" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C824" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D824" s="5"/>
-      <c r="E824" s="5"/>
-      <c r="F824" s="5"/>
-      <c r="G824" s="5"/>
-      <c r="H824" s="5"/>
-      <c r="I824" s="5"/>
-      <c r="J824" s="5" t="s">
+      <c r="C824" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D824" s="2"/>
+      <c r="E824" s="2"/>
+      <c r="F824" s="2"/>
+      <c r="G824" s="2"/>
+      <c r="H824" s="2"/>
+      <c r="I824" s="2"/>
+      <c r="J824" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K824" s="5"/>
-      <c r="L824" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M824" s="5" t="s">
+      <c r="K824" s="2"/>
+      <c r="L824" s="4"/>
+      <c r="M824" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N824" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O824" s="5"/>
-      <c r="P824" s="5"/>
-      <c r="Q824" s="5"/>
-      <c r="R824" s="5"/>
-      <c r="S824" s="5"/>
-      <c r="T824" s="5"/>
-      <c r="U824" s="5" t="s">
+      <c r="N824" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O824" s="2"/>
+      <c r="P824" s="2"/>
+      <c r="Q824" s="2"/>
+      <c r="R824" s="2"/>
+      <c r="S824" s="2"/>
+      <c r="T824" s="2"/>
+      <c r="U824" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V824" s="5"/>
+      <c r="V824" s="2"/>
     </row>
     <row r="825" spans="1:22">
       <c r="A825" s="5" t="s">
@@ -46734,9 +46534,7 @@
         <v>904</v>
       </c>
       <c r="K828" s="5"/>
-      <c r="L828" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L828" s="4"/>
       <c r="M828" s="5" t="s">
         <v>160</v>
       </c>
@@ -46867,44 +46665,42 @@
       <c r="V830" s="5"/>
     </row>
     <row r="831" spans="1:22">
-      <c r="A831" s="5" t="s">
+      <c r="A831" s="2" t="s">
         <v>2118</v>
       </c>
-      <c r="B831" s="5" t="s">
+      <c r="B831" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C831" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D831" s="5"/>
-      <c r="E831" s="5"/>
-      <c r="F831" s="5"/>
-      <c r="G831" s="5"/>
-      <c r="H831" s="5"/>
-      <c r="I831" s="5"/>
-      <c r="J831" s="5" t="s">
+      <c r="C831" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D831" s="2"/>
+      <c r="E831" s="2"/>
+      <c r="F831" s="2"/>
+      <c r="G831" s="2"/>
+      <c r="H831" s="2"/>
+      <c r="I831" s="2"/>
+      <c r="J831" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K831" s="5"/>
-      <c r="L831" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M831" s="5" t="s">
+      <c r="K831" s="2"/>
+      <c r="L831" s="4"/>
+      <c r="M831" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="N831" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="O831" s="5"/>
-      <c r="P831" s="5"/>
-      <c r="Q831" s="5"/>
-      <c r="R831" s="5"/>
-      <c r="S831" s="5"/>
-      <c r="T831" s="5"/>
-      <c r="U831" s="5" t="s">
+      <c r="N831" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O831" s="2"/>
+      <c r="P831" s="2"/>
+      <c r="Q831" s="2"/>
+      <c r="R831" s="2"/>
+      <c r="S831" s="2"/>
+      <c r="T831" s="2"/>
+      <c r="U831" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="V831" s="5"/>
+      <c r="V831" s="2"/>
     </row>
     <row r="832" spans="1:22">
       <c r="A832" s="5" t="s">
@@ -47042,9 +46838,7 @@
         <v>904</v>
       </c>
       <c r="K834" s="5"/>
-      <c r="L834" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L834" s="4"/>
       <c r="M834" s="5" t="s">
         <v>163</v>
       </c>
@@ -47274,9 +47068,7 @@
         <v>904</v>
       </c>
       <c r="K838" s="5"/>
-      <c r="L838" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="L838" s="4"/>
       <c r="M838" s="5" t="s">
         <v>163</v>
       </c>
